--- a/makes.xlsx
+++ b/makes.xlsx
@@ -12,9 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13125"/>
   </bookViews>
   <sheets>
-    <sheet name="brand" sheetId="1" r:id="rId1"/>
+    <sheet name="makes" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -582,9 +582,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -869,16 +868,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD177"/>
+  <dimension ref="A1:B177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="252" width="11.42578125" style="1"/>
-    <col min="16381" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
